--- a/tests/T1_out/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tests/T1_out/eblocks-plate-upload-template-96-filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A484S_Block-0</t>
+          <t>I477D-A484S_Block-0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaagtcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgcctcggccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I537P_Block-0</t>
+          <t>A484S_Block-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgccgcgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaagtcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A540L_Block-0</t>
+          <t>I537P-K562A_Block-0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacctgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K562A_Block-0</t>
+          <t>A540L_Block-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtgggcccggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacctgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I569V_Block-0</t>
+          <t>K562A_Block-0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccgtgatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtgggcccggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L584V_Block-0</t>
+          <t>I569V_Block-0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctggtgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccgtgatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T595S_Block-0</t>
+          <t>L584V_Block-0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgtcgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctggtgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D599Y_Block-0</t>
+          <t>T595S_Block-0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggctacgcgatcgacaacgtcagggccaaca</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgtcgatcatcggcgacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P618D_Block-2</t>
+          <t>D599Y_Block-0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cgacctcgacctggaatccgtggacctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggctacgcgatcgacaacgtcagggccaaca</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N677H_Block-2</t>
+          <t>P618D_Block-2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacaccacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgacctcgacctggaatccgtggacctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Q722V_Block-2</t>
+          <t>N677H_Block-2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcggtgaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacaccacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A770R_Block-2</t>
+          <t>Q722V_Block-2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaagcgcctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcggtgaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D773E_Block-2</t>
+          <t>A770R-PLR_Block-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggagaccatcctgccgttcgctgactacg</t>
+          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgccgctgcgcctgtgggacaccatcctgccgttcgctgactacg</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>K922R_Block-4</t>
+          <t>D773E_Block-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgccgcggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggagaccatcctgccgttcgctgactacg</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E972G_Block-4</t>
+          <t>K922R_Block-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatggctgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgccgcggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>W973S_Block-4</t>
+          <t>E972G_Block-4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtcggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatggctgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Q1023R_Block-4</t>
+          <t>W973S_Block-4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccgcgtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtcggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A1031T_Block-4</t>
+          <t>Q1023R_Block-4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctgacctcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccgcgtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N1034Q_Block-4</t>
+          <t>A1031T_Block-4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgcagcggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctgacctcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N1038T_Block-4</t>
+          <t>N1034Q_Block-4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaccaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgcagcggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S1046N_Block-4</t>
+          <t>N1038T_Block-4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggctaacgcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaccaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L1052E_Block-4</t>
+          <t>S1046N_Block-4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatgagacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggctaacgcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>V1086N_Block-4</t>
+          <t>L1052E_Block-4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcgaaccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatgagacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R1090A_Block-4</t>
+          <t>V1086N_Block-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgacgccatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcgaaccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
         </is>
       </c>
     </row>
@@ -934,10 +934,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>R1090A_Block-4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgacgccatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>N1096E_Block-4</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccgaggacctcacagtgcccgacttttcca</t>
         </is>
